--- a/NewKinsTake4/wwwroot/data/jakePython/test.xlsx
+++ b/NewKinsTake4/wwwroot/data/jakePython/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leeja\source\repos\NewKinsTake4\NewKinsTake4\wwwroot\data\jakePython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF0F61-BCA0-4AAD-BB04-C74F006E9891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79AA975-09CA-4930-ABFB-25B5B1A642BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3066,11 +3066,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>If a customer's credit deteriorates or a loan becomes **delinquent** and is deemed **uncollectible**, the bank **registers the collateral** designated for loan repayment with the **court**. This is done to facilitate disposal through auction, public sale, or other means of liquidation.</t>
+    <t>430800_Related_Work</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>430800_Related_Work</t>
+    <t>If a customer's credit deteriorates or a loan becomes **delinquent** and is deemed **uncollectible**,&lt;br&gt;&lt;br&gt; the bank **registers the collateral** designated for loan repayment with the **court**. This is done to facilitate disposal through auction, public sale, or other means of liquidation.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3539,7 +3539,7 @@
   <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -4585,7 +4585,7 @@
         <v>24</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="D56" t="s">
         <v>64</v>
@@ -4597,7 +4597,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="H56" s="3" t="s">
         <v>1008</v>
